--- a/Data/bot_commands.xlsx
+++ b/Data/bot_commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>mieu_ta</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Ngẫu nhiên hiển thị một ảnh anime</t>
   </si>
   <si>
-    <t>Ngẫu nhiên hiển thị ảnh một cô gái hit</t>
-  </si>
-  <si>
     <t>Đưa ra câu hỏi với reaction YES/NO</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
   </si>
   <si>
     <t>Bot làm thơ</t>
+  </si>
+  <si>
+    <t>hit:boy</t>
+  </si>
+  <si>
+    <t>Ảnh các bạn nam trong HIT</t>
+  </si>
+  <si>
+    <t>Ngẫu nhiên hiển thị ảnh một cô gái HIT</t>
+  </si>
+  <si>
+    <t>hit:image</t>
+  </si>
+  <si>
+    <t>Ảnh các sự kiện, tham quan của HIT</t>
   </si>
 </sst>
 </file>
@@ -397,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -464,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,15 +484,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
